--- a/data/xlsx/key_items.xlsx
+++ b/data/xlsx/key_items.xlsx
@@ -20,7 +20,7 @@
     <t>info</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>type_id</t>
